--- a/entities.xlsx
+++ b/entities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="47">
   <si>
     <t>Students</t>
   </si>
@@ -88,15 +88,12 @@
     <t>enum</t>
   </si>
   <si>
-    <t>awards</t>
-  </si>
-  <si>
-    <t>fk []</t>
-  </si>
-  <si>
     <t>principle, hod, teacher</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Grades</t>
   </si>
   <si>
@@ -152,6 +149,12 @@
   </si>
   <si>
     <t>teacher_id</t>
+  </si>
+  <si>
+    <t>students_awards</t>
+  </si>
+  <si>
+    <t>award_id</t>
   </si>
 </sst>
 </file>
@@ -159,13 +162,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -198,6 +207,13 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -216,13 +232,6 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -270,34 +279,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -305,13 +305,31 @@
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -622,32 +640,32 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="22.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="36.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="15" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="34.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="15" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="15" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="16" width="22.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="16" width="25.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="15" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="15" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="15" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="15" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="15" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="15" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="15" width="22.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="15" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="18" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="18" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="18" width="22.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="18" width="36.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="18" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="18" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="18" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="18" width="34.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="18" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="18" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="18" width="22.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="18" width="25.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="18" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="18" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="19" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="19" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="18" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="18" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="18" width="22.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="18" width="22.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -665,8 +683,8 @@
       <c r="L1" s="2"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -687,374 +705,378 @@
       <c r="L2" s="2"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="25.5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="3" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="5"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="4"/>
+      <c r="P3" s="5"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="T3" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="25.5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="5"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="8"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="S4" s="7"/>
+      <c r="T4" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="25.5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="5"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="8"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="8"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="25.5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="T6" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="25.5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="10" t="s">
+      <c r="S7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="11" t="s">
+      <c r="T7" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="25.5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="12" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="10" t="s">
+      <c r="S8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="T8" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="25.5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="12" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="10" t="s">
+      <c r="S9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="T9" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="25.5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="12" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="11"/>
+      <c r="K10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="10" t="s">
+      <c r="O10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="12" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="10" t="s">
+      <c r="S10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="T10" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="25.5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="12" t="s">
         <v>8</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="12"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="12"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="10" t="s">
+      <c r="S11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="T11" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="25.5">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="12" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="25.5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="12" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="1"/>
@@ -1063,8 +1085,8 @@
       <c r="L13" s="2"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -1073,19 +1095,15 @@
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="25.5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>25</v>
-      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1093,8 +1111,8 @@
       <c r="L14" s="2"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -1103,15 +1121,15 @@
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="25.5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>26</v>
+      <c r="G15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1119,8 +1137,8 @@
       <c r="L15" s="2"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -1141,14 +1159,14 @@
       <c r="L16" s="2"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1163,14 +1181,14 @@
       <c r="L17" s="2"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1185,8 +1203,8 @@
       <c r="L18" s="2"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -1195,352 +1213,364 @@
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="5"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" s="4"/>
+      <c r="K19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="5"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P19" s="4"/>
+      <c r="O19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" s="5"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-      <c r="S19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T19" s="4"/>
+      <c r="S19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T19" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="8"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="8"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="8"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="8"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="25.5">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="12" t="s">
         <v>6</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="L22" s="12" t="s">
         <v>6</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="10" t="s">
+      <c r="O22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="11" t="s">
+      <c r="P22" s="12" t="s">
         <v>6</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
-      <c r="S22" s="10" t="s">
+      <c r="S22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="T22" s="11" t="s">
+      <c r="T22" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="25.5">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="11" t="s">
+      <c r="G23" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>6</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L23" s="11" t="s">
+      <c r="K23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="12" t="s">
         <v>23</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="10" t="s">
+      <c r="O23" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P23" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="P23" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
-      <c r="S23" s="10" t="s">
+      <c r="S23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="T23" s="11" t="s">
+      <c r="T23" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="25.5">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="11" t="s">
+      <c r="G24" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="12" t="s">
         <v>6</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P24" s="11" t="s">
+      <c r="O24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" s="12" t="s">
         <v>10</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
-      <c r="S24" s="10" t="s">
+      <c r="S24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T24" s="11" t="s">
+      <c r="T24" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="25.5">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>43</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="L25" s="12" t="s">
         <v>10</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="10" t="s">
+      <c r="O25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P25" s="11" t="s">
+      <c r="P25" s="12" t="s">
         <v>15</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
-      <c r="S25" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="T25" s="11" t="s">
+      <c r="S25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T25" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="25.5">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="12" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="L26" s="12" t="s">
         <v>10</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="11"/>
+      <c r="O26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="11"/>
+      <c r="S26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="T26" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="25.5">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="C27" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="12" t="s">
         <v>15</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="11" t="s">
+      <c r="K27" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="12" t="s">
         <v>10</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="12"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="11"/>
+      <c r="S27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T27" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="25.5">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="10" t="s">
+      <c r="K28" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="L28" s="12" t="s">
         <v>15</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="14"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="13"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="25.5">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="1"/>
@@ -1549,16 +1579,16 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="10" t="s">
+      <c r="K29" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="11" t="s">
+      <c r="L29" s="12" t="s">
         <v>15</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -1575,12 +1605,12 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="12"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -1597,12 +1627,12 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="12"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -1619,19 +1649,243 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="14"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
+      <c r="O32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P32" s="5"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P36" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P38" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P39" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P40" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="C3:D5"/>
     <mergeCell ref="G3:H5"/>
     <mergeCell ref="K3:L5"/>
@@ -1642,6 +1896,7 @@
     <mergeCell ref="K19:L21"/>
     <mergeCell ref="O19:P21"/>
     <mergeCell ref="S19:T21"/>
+    <mergeCell ref="O32:P34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
